--- a/cet_matrix.xlsx
+++ b/cet_matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eff0102c2a197be2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mithr\Desktop\College Counselling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{AF9B4AA1-581B-4EAE-8BAB-229E6B3D9D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D330A011-DAE3-40FA-BC1A-840AC8F4C2F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A9C40B-5EA5-4A55-96A9-6A7757119507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{336E0819-E487-4981-87F6-FD001708BA5B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="145">
   <si>
     <t>College Code</t>
   </si>
@@ -440,6 +440,36 @@
   <si>
     <t>EV - Electronics Engineering(VLSI DG - DESIGN Technology)</t>
   </si>
+  <si>
+    <t>E013</t>
+  </si>
+  <si>
+    <t>Ramanagara</t>
+  </si>
+  <si>
+    <t>Ghousia Engineering College, Ramanagara</t>
+  </si>
+  <si>
+    <t>E056</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>The National Institute of Engineering(SOUTH CAMPUS)</t>
+  </si>
+  <si>
+    <t>E047</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Malnad College of Engineering, Hassan</t>
+  </si>
+  <si>
+    <t>E024</t>
+  </si>
 </sst>
 </file>
 
@@ -592,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -615,6 +645,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DCB74A-36BF-43C9-8A5F-A92ED2F762C6}">
-  <dimension ref="A1:AH146"/>
+  <dimension ref="A1:AH164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="C134" zoomScale="69" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI149" sqref="AI149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15018,6 +15050,1725 @@
       <c r="AG146" s="10"/>
       <c r="AH146" s="10"/>
     </row>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" s="16">
+        <v>2</v>
+      </c>
+      <c r="G147" s="16">
+        <v>0</v>
+      </c>
+      <c r="H147" s="16">
+        <v>0</v>
+      </c>
+      <c r="I147" s="16">
+        <v>8</v>
+      </c>
+      <c r="J147" s="16">
+        <v>1</v>
+      </c>
+      <c r="K147" s="16">
+        <v>1</v>
+      </c>
+      <c r="L147" s="16">
+        <v>2</v>
+      </c>
+      <c r="M147" s="16">
+        <v>0</v>
+      </c>
+      <c r="N147" s="16">
+        <v>0</v>
+      </c>
+      <c r="O147" s="16">
+        <v>2</v>
+      </c>
+      <c r="P147" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="16">
+        <v>0</v>
+      </c>
+      <c r="R147" s="16">
+        <v>2</v>
+      </c>
+      <c r="S147" s="16">
+        <v>0</v>
+      </c>
+      <c r="T147" s="16">
+        <v>1</v>
+      </c>
+      <c r="U147" s="16">
+        <v>22</v>
+      </c>
+      <c r="V147" s="16">
+        <v>2</v>
+      </c>
+      <c r="W147" s="16">
+        <v>4</v>
+      </c>
+      <c r="X147" s="16">
+        <v>9</v>
+      </c>
+      <c r="Y147" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z147" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA147" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB147" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD147" s="10">
+        <v>9</v>
+      </c>
+      <c r="AE147" s="10">
+        <v>72</v>
+      </c>
+      <c r="AF147" s="10"/>
+      <c r="AG147" s="10"/>
+      <c r="AH147" s="10"/>
+    </row>
+    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" s="17">
+        <v>1</v>
+      </c>
+      <c r="G148" s="17">
+        <v>0</v>
+      </c>
+      <c r="H148" s="17">
+        <v>0</v>
+      </c>
+      <c r="I148" s="17">
+        <v>2</v>
+      </c>
+      <c r="J148" s="17">
+        <v>0</v>
+      </c>
+      <c r="K148" s="17">
+        <v>1</v>
+      </c>
+      <c r="L148" s="17">
+        <v>1</v>
+      </c>
+      <c r="M148" s="17">
+        <v>0</v>
+      </c>
+      <c r="N148" s="17">
+        <v>0</v>
+      </c>
+      <c r="O148" s="17">
+        <v>1</v>
+      </c>
+      <c r="P148" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="17">
+        <v>0</v>
+      </c>
+      <c r="R148" s="17">
+        <v>1</v>
+      </c>
+      <c r="S148" s="17">
+        <v>0</v>
+      </c>
+      <c r="T148" s="17">
+        <v>0</v>
+      </c>
+      <c r="U148" s="17">
+        <v>7</v>
+      </c>
+      <c r="V148" s="17">
+        <v>1</v>
+      </c>
+      <c r="W148" s="17">
+        <v>1</v>
+      </c>
+      <c r="X148" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y148" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z148" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA148" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB148" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD148" s="9">
+        <v>3</v>
+      </c>
+      <c r="AE148" s="9">
+        <v>24</v>
+      </c>
+      <c r="AF148" s="9"/>
+      <c r="AG148" s="9"/>
+      <c r="AH148" s="9"/>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" s="17">
+        <v>0</v>
+      </c>
+      <c r="G149" s="17">
+        <v>0</v>
+      </c>
+      <c r="H149" s="17">
+        <v>0</v>
+      </c>
+      <c r="I149" s="17">
+        <v>1</v>
+      </c>
+      <c r="J149" s="17">
+        <v>0</v>
+      </c>
+      <c r="K149" s="17">
+        <v>0</v>
+      </c>
+      <c r="L149" s="17">
+        <v>0</v>
+      </c>
+      <c r="M149" s="17">
+        <v>0</v>
+      </c>
+      <c r="N149" s="17">
+        <v>1</v>
+      </c>
+      <c r="O149" s="17">
+        <v>0</v>
+      </c>
+      <c r="P149" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="17">
+        <v>0</v>
+      </c>
+      <c r="R149" s="17">
+        <v>1</v>
+      </c>
+      <c r="S149" s="17">
+        <v>0</v>
+      </c>
+      <c r="T149" s="17">
+        <v>0</v>
+      </c>
+      <c r="U149" s="17">
+        <v>4</v>
+      </c>
+      <c r="V149" s="17">
+        <v>0</v>
+      </c>
+      <c r="W149" s="17">
+        <v>1</v>
+      </c>
+      <c r="X149" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y149" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA149" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB149" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD149" s="9">
+        <v>2</v>
+      </c>
+      <c r="AE149" s="9">
+        <v>13</v>
+      </c>
+      <c r="AF149" s="9"/>
+      <c r="AG149" s="9"/>
+      <c r="AH149" s="9"/>
+    </row>
+    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" s="16">
+        <v>1</v>
+      </c>
+      <c r="G150" s="16">
+        <v>1</v>
+      </c>
+      <c r="H150" s="16">
+        <v>0</v>
+      </c>
+      <c r="I150" s="16">
+        <v>3</v>
+      </c>
+      <c r="J150" s="16">
+        <v>0</v>
+      </c>
+      <c r="K150" s="16">
+        <v>1</v>
+      </c>
+      <c r="L150" s="16">
+        <v>1</v>
+      </c>
+      <c r="M150" s="16">
+        <v>0</v>
+      </c>
+      <c r="N150" s="16">
+        <v>0</v>
+      </c>
+      <c r="O150" s="16">
+        <v>1</v>
+      </c>
+      <c r="P150" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="16">
+        <v>0</v>
+      </c>
+      <c r="R150" s="16">
+        <v>1</v>
+      </c>
+      <c r="S150" s="16">
+        <v>0</v>
+      </c>
+      <c r="T150" s="16">
+        <v>0</v>
+      </c>
+      <c r="U150" s="16">
+        <v>8</v>
+      </c>
+      <c r="V150" s="16">
+        <v>0</v>
+      </c>
+      <c r="W150" s="16">
+        <v>2</v>
+      </c>
+      <c r="X150" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y150" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z150" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA150" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB150" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD150" s="16">
+        <v>3</v>
+      </c>
+      <c r="AE150" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F151" s="17">
+        <v>2</v>
+      </c>
+      <c r="G151" s="17">
+        <v>0</v>
+      </c>
+      <c r="H151" s="17">
+        <v>1</v>
+      </c>
+      <c r="I151" s="17">
+        <v>6</v>
+      </c>
+      <c r="J151" s="17">
+        <v>0</v>
+      </c>
+      <c r="K151" s="17">
+        <v>1</v>
+      </c>
+      <c r="L151" s="17">
+        <v>1</v>
+      </c>
+      <c r="M151" s="17">
+        <v>1</v>
+      </c>
+      <c r="N151" s="17">
+        <v>0</v>
+      </c>
+      <c r="O151" s="17">
+        <v>1</v>
+      </c>
+      <c r="P151" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="17">
+        <v>0</v>
+      </c>
+      <c r="R151" s="17">
+        <v>2</v>
+      </c>
+      <c r="S151" s="17">
+        <v>0</v>
+      </c>
+      <c r="T151" s="17">
+        <v>0</v>
+      </c>
+      <c r="U151" s="17">
+        <v>16</v>
+      </c>
+      <c r="V151" s="17">
+        <v>1</v>
+      </c>
+      <c r="W151" s="17">
+        <v>3</v>
+      </c>
+      <c r="X151" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y151" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA151" s="17">
+        <v>3</v>
+      </c>
+      <c r="AB151" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD151" s="17">
+        <v>6</v>
+      </c>
+      <c r="AE151" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152" s="17">
+        <v>1</v>
+      </c>
+      <c r="G152" s="17">
+        <v>0</v>
+      </c>
+      <c r="H152" s="17">
+        <v>0</v>
+      </c>
+      <c r="I152" s="17">
+        <v>6</v>
+      </c>
+      <c r="J152" s="17">
+        <v>0</v>
+      </c>
+      <c r="K152" s="17">
+        <v>1</v>
+      </c>
+      <c r="L152" s="17">
+        <v>1</v>
+      </c>
+      <c r="M152" s="17">
+        <v>0</v>
+      </c>
+      <c r="N152" s="17">
+        <v>0</v>
+      </c>
+      <c r="O152" s="17">
+        <v>2</v>
+      </c>
+      <c r="P152" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="17">
+        <v>0</v>
+      </c>
+      <c r="R152" s="17">
+        <v>2</v>
+      </c>
+      <c r="S152" s="17">
+        <v>0</v>
+      </c>
+      <c r="T152" s="17">
+        <v>1</v>
+      </c>
+      <c r="U152" s="17">
+        <v>17</v>
+      </c>
+      <c r="V152" s="17">
+        <v>1</v>
+      </c>
+      <c r="W152" s="17">
+        <v>3</v>
+      </c>
+      <c r="X152" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y152" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z152" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA152" s="17">
+        <v>3</v>
+      </c>
+      <c r="AB152" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC152" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD152" s="17">
+        <v>6</v>
+      </c>
+      <c r="AE152" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" s="16">
+        <v>1</v>
+      </c>
+      <c r="G153" s="16">
+        <v>0</v>
+      </c>
+      <c r="H153" s="16">
+        <v>0</v>
+      </c>
+      <c r="I153" s="16">
+        <v>2</v>
+      </c>
+      <c r="J153" s="16">
+        <v>1</v>
+      </c>
+      <c r="K153" s="16">
+        <v>0</v>
+      </c>
+      <c r="L153" s="16">
+        <v>1</v>
+      </c>
+      <c r="M153" s="16">
+        <v>0</v>
+      </c>
+      <c r="N153" s="16">
+        <v>0</v>
+      </c>
+      <c r="O153" s="16">
+        <v>1</v>
+      </c>
+      <c r="P153" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="16">
+        <v>0</v>
+      </c>
+      <c r="R153" s="16">
+        <v>1</v>
+      </c>
+      <c r="S153" s="16">
+        <v>0</v>
+      </c>
+      <c r="T153" s="16">
+        <v>0</v>
+      </c>
+      <c r="U153" s="16">
+        <v>8</v>
+      </c>
+      <c r="V153" s="16">
+        <v>1</v>
+      </c>
+      <c r="W153" s="16">
+        <v>2</v>
+      </c>
+      <c r="X153" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y153" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z153" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA153" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB153" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD153" s="16">
+        <v>3</v>
+      </c>
+      <c r="AE153" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F154" s="17">
+        <v>2</v>
+      </c>
+      <c r="G154" s="17">
+        <v>0</v>
+      </c>
+      <c r="H154" s="17">
+        <v>0</v>
+      </c>
+      <c r="I154" s="17">
+        <v>6</v>
+      </c>
+      <c r="J154" s="17">
+        <v>0</v>
+      </c>
+      <c r="K154" s="17">
+        <v>1</v>
+      </c>
+      <c r="L154" s="17">
+        <v>1</v>
+      </c>
+      <c r="M154" s="17">
+        <v>0</v>
+      </c>
+      <c r="N154" s="17">
+        <v>0</v>
+      </c>
+      <c r="O154" s="17">
+        <v>1</v>
+      </c>
+      <c r="P154" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="17">
+        <v>0</v>
+      </c>
+      <c r="R154" s="17">
+        <v>2</v>
+      </c>
+      <c r="S154" s="17">
+        <v>1</v>
+      </c>
+      <c r="T154" s="17">
+        <v>1</v>
+      </c>
+      <c r="U154" s="17">
+        <v>17</v>
+      </c>
+      <c r="V154" s="17">
+        <v>1</v>
+      </c>
+      <c r="W154" s="17">
+        <v>4</v>
+      </c>
+      <c r="X154" s="17">
+        <v>7</v>
+      </c>
+      <c r="Y154" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z154" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA154" s="17">
+        <v>3</v>
+      </c>
+      <c r="AB154" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC154" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD154" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE154" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F155" s="16">
+        <v>1</v>
+      </c>
+      <c r="G155" s="16">
+        <v>0</v>
+      </c>
+      <c r="H155" s="16">
+        <v>1</v>
+      </c>
+      <c r="I155" s="16">
+        <v>6</v>
+      </c>
+      <c r="J155" s="16">
+        <v>0</v>
+      </c>
+      <c r="K155" s="16">
+        <v>2</v>
+      </c>
+      <c r="L155" s="16">
+        <v>1</v>
+      </c>
+      <c r="M155" s="16">
+        <v>1</v>
+      </c>
+      <c r="N155" s="16">
+        <v>0</v>
+      </c>
+      <c r="O155" s="16">
+        <v>2</v>
+      </c>
+      <c r="P155" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="16">
+        <v>0</v>
+      </c>
+      <c r="R155" s="16">
+        <v>2</v>
+      </c>
+      <c r="S155" s="16">
+        <v>0</v>
+      </c>
+      <c r="T155" s="16">
+        <v>0</v>
+      </c>
+      <c r="U155" s="16">
+        <v>18</v>
+      </c>
+      <c r="V155" s="16">
+        <v>1</v>
+      </c>
+      <c r="W155" s="16">
+        <v>3</v>
+      </c>
+      <c r="X155" s="16">
+        <v>7</v>
+      </c>
+      <c r="Y155" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z155" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA155" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB155" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC155" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD155" s="16">
+        <v>3</v>
+      </c>
+      <c r="AE155" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="16">
+        <v>2</v>
+      </c>
+      <c r="G156" s="16">
+        <v>0</v>
+      </c>
+      <c r="H156" s="16">
+        <v>0</v>
+      </c>
+      <c r="I156" s="16">
+        <v>6</v>
+      </c>
+      <c r="J156" s="16">
+        <v>1</v>
+      </c>
+      <c r="K156" s="16">
+        <v>1</v>
+      </c>
+      <c r="L156" s="16">
+        <v>2</v>
+      </c>
+      <c r="M156" s="16">
+        <v>0</v>
+      </c>
+      <c r="N156" s="16">
+        <v>0</v>
+      </c>
+      <c r="O156" s="16">
+        <v>1</v>
+      </c>
+      <c r="P156" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="16">
+        <v>0</v>
+      </c>
+      <c r="R156" s="16">
+        <v>2</v>
+      </c>
+      <c r="S156" s="16">
+        <v>0</v>
+      </c>
+      <c r="T156" s="16">
+        <v>0</v>
+      </c>
+      <c r="U156" s="16">
+        <v>17</v>
+      </c>
+      <c r="V156" s="16">
+        <v>1</v>
+      </c>
+      <c r="W156" s="16">
+        <v>3</v>
+      </c>
+      <c r="X156" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y156" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z156" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA156" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB156" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC156" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD156" s="16">
+        <v>3</v>
+      </c>
+      <c r="AE156" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" s="17">
+        <v>3</v>
+      </c>
+      <c r="G157" s="17">
+        <v>0</v>
+      </c>
+      <c r="H157" s="17">
+        <v>1</v>
+      </c>
+      <c r="I157" s="17">
+        <v>11</v>
+      </c>
+      <c r="J157" s="17">
+        <v>1</v>
+      </c>
+      <c r="K157" s="17">
+        <v>2</v>
+      </c>
+      <c r="L157" s="17">
+        <v>4</v>
+      </c>
+      <c r="M157" s="17">
+        <v>0</v>
+      </c>
+      <c r="N157" s="17">
+        <v>1</v>
+      </c>
+      <c r="O157" s="17">
+        <v>4</v>
+      </c>
+      <c r="P157" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="17">
+        <v>1</v>
+      </c>
+      <c r="R157" s="17">
+        <v>4</v>
+      </c>
+      <c r="S157" s="17">
+        <v>0</v>
+      </c>
+      <c r="T157" s="17">
+        <v>1</v>
+      </c>
+      <c r="U157" s="17">
+        <v>35</v>
+      </c>
+      <c r="V157" s="17">
+        <v>2</v>
+      </c>
+      <c r="W157" s="17">
+        <v>6</v>
+      </c>
+      <c r="X157" s="17">
+        <v>13</v>
+      </c>
+      <c r="Y157" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z157" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA157" s="17">
+        <v>5</v>
+      </c>
+      <c r="AB157" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC157" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD157" s="17">
+        <v>6</v>
+      </c>
+      <c r="AE157" s="9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F158" s="17">
+        <v>1</v>
+      </c>
+      <c r="G158" s="17">
+        <v>0</v>
+      </c>
+      <c r="H158" s="17">
+        <v>0</v>
+      </c>
+      <c r="I158" s="17">
+        <v>2</v>
+      </c>
+      <c r="J158" s="17">
+        <v>0</v>
+      </c>
+      <c r="K158" s="17">
+        <v>0</v>
+      </c>
+      <c r="L158" s="17">
+        <v>1</v>
+      </c>
+      <c r="M158" s="17">
+        <v>0</v>
+      </c>
+      <c r="N158" s="17">
+        <v>0</v>
+      </c>
+      <c r="O158" s="17">
+        <v>1</v>
+      </c>
+      <c r="P158" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="17">
+        <v>0</v>
+      </c>
+      <c r="R158" s="17">
+        <v>1</v>
+      </c>
+      <c r="S158" s="17">
+        <v>0</v>
+      </c>
+      <c r="T158" s="17">
+        <v>0</v>
+      </c>
+      <c r="U158" s="17">
+        <v>8</v>
+      </c>
+      <c r="V158" s="17">
+        <v>1</v>
+      </c>
+      <c r="W158" s="17">
+        <v>1</v>
+      </c>
+      <c r="X158" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y158" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z158" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA158" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB158" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD158" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE158" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159" s="16">
+        <v>0</v>
+      </c>
+      <c r="G159" s="16">
+        <v>0</v>
+      </c>
+      <c r="H159" s="16">
+        <v>0</v>
+      </c>
+      <c r="I159" s="16">
+        <v>3</v>
+      </c>
+      <c r="J159" s="16">
+        <v>0</v>
+      </c>
+      <c r="K159" s="16">
+        <v>1</v>
+      </c>
+      <c r="L159" s="16">
+        <v>0</v>
+      </c>
+      <c r="M159" s="16">
+        <v>0</v>
+      </c>
+      <c r="N159" s="16">
+        <v>0</v>
+      </c>
+      <c r="O159" s="16">
+        <v>1</v>
+      </c>
+      <c r="P159" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="16">
+        <v>0</v>
+      </c>
+      <c r="R159" s="16">
+        <v>1</v>
+      </c>
+      <c r="S159" s="16">
+        <v>0</v>
+      </c>
+      <c r="T159" s="16">
+        <v>0</v>
+      </c>
+      <c r="U159" s="16">
+        <v>8</v>
+      </c>
+      <c r="V159" s="16">
+        <v>1</v>
+      </c>
+      <c r="W159" s="16">
+        <v>2</v>
+      </c>
+      <c r="X159" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y159" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z159" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA159" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB159" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC159" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD159" s="16">
+        <v>3</v>
+      </c>
+      <c r="AE159" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" s="16">
+        <v>1</v>
+      </c>
+      <c r="G160" s="16">
+        <v>0</v>
+      </c>
+      <c r="H160" s="16">
+        <v>0</v>
+      </c>
+      <c r="I160" s="16">
+        <v>2</v>
+      </c>
+      <c r="J160" s="16">
+        <v>0</v>
+      </c>
+      <c r="K160" s="16">
+        <v>1</v>
+      </c>
+      <c r="L160" s="16">
+        <v>1</v>
+      </c>
+      <c r="M160" s="16">
+        <v>0</v>
+      </c>
+      <c r="N160" s="16">
+        <v>0</v>
+      </c>
+      <c r="O160" s="16">
+        <v>1</v>
+      </c>
+      <c r="P160" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="16">
+        <v>0</v>
+      </c>
+      <c r="R160" s="16">
+        <v>1</v>
+      </c>
+      <c r="S160" s="16">
+        <v>0</v>
+      </c>
+      <c r="T160" s="16">
+        <v>0</v>
+      </c>
+      <c r="U160" s="16">
+        <v>8</v>
+      </c>
+      <c r="V160" s="16">
+        <v>0</v>
+      </c>
+      <c r="W160" s="16">
+        <v>2</v>
+      </c>
+      <c r="X160" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y160" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z160" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA160" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB160" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD160" s="16">
+        <v>3</v>
+      </c>
+      <c r="AE160" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" s="16">
+        <v>3</v>
+      </c>
+      <c r="G161" s="16">
+        <v>0</v>
+      </c>
+      <c r="H161" s="16">
+        <v>1</v>
+      </c>
+      <c r="I161" s="16">
+        <v>12</v>
+      </c>
+      <c r="J161" s="16">
+        <v>1</v>
+      </c>
+      <c r="K161" s="16">
+        <v>2</v>
+      </c>
+      <c r="L161" s="16">
+        <v>3</v>
+      </c>
+      <c r="M161" s="16">
+        <v>0</v>
+      </c>
+      <c r="N161" s="16">
+        <v>1</v>
+      </c>
+      <c r="O161" s="16">
+        <v>3</v>
+      </c>
+      <c r="P161" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="16">
+        <v>0</v>
+      </c>
+      <c r="R161" s="16">
+        <v>3</v>
+      </c>
+      <c r="S161" s="16">
+        <v>0</v>
+      </c>
+      <c r="T161" s="16">
+        <v>1</v>
+      </c>
+      <c r="U161" s="16">
+        <v>33</v>
+      </c>
+      <c r="V161" s="16">
+        <v>2</v>
+      </c>
+      <c r="W161" s="16">
+        <v>6</v>
+      </c>
+      <c r="X161" s="16">
+        <v>13</v>
+      </c>
+      <c r="Y161" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z161" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA161" s="16">
+        <v>5</v>
+      </c>
+      <c r="AB161" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC161" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD161" s="16">
+        <v>12</v>
+      </c>
+      <c r="AE161" s="10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" s="17">
+        <v>1</v>
+      </c>
+      <c r="G162" s="17">
+        <v>0</v>
+      </c>
+      <c r="H162" s="17">
+        <v>0</v>
+      </c>
+      <c r="I162" s="17">
+        <v>3</v>
+      </c>
+      <c r="J162" s="17">
+        <v>0</v>
+      </c>
+      <c r="K162" s="17">
+        <v>0</v>
+      </c>
+      <c r="L162" s="17">
+        <v>1</v>
+      </c>
+      <c r="M162" s="17">
+        <v>1</v>
+      </c>
+      <c r="N162" s="17">
+        <v>1</v>
+      </c>
+      <c r="O162" s="17">
+        <v>0</v>
+      </c>
+      <c r="P162" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="17">
+        <v>1</v>
+      </c>
+      <c r="R162" s="17">
+        <v>1</v>
+      </c>
+      <c r="S162" s="17">
+        <v>0</v>
+      </c>
+      <c r="T162" s="17">
+        <v>0</v>
+      </c>
+      <c r="U162" s="17">
+        <v>8</v>
+      </c>
+      <c r="V162" s="17">
+        <v>0</v>
+      </c>
+      <c r="W162" s="17">
+        <v>1</v>
+      </c>
+      <c r="X162" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y162" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA162" s="17">
+        <v>2</v>
+      </c>
+      <c r="AB162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD162" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE162" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" s="17">
+        <v>1</v>
+      </c>
+      <c r="G163" s="17">
+        <v>0</v>
+      </c>
+      <c r="H163" s="17">
+        <v>1</v>
+      </c>
+      <c r="I163" s="17">
+        <v>2</v>
+      </c>
+      <c r="J163" s="17">
+        <v>0</v>
+      </c>
+      <c r="K163" s="17">
+        <v>0</v>
+      </c>
+      <c r="L163" s="17">
+        <v>1</v>
+      </c>
+      <c r="M163" s="17">
+        <v>0</v>
+      </c>
+      <c r="N163" s="17">
+        <v>0</v>
+      </c>
+      <c r="O163" s="17">
+        <v>1</v>
+      </c>
+      <c r="P163" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="17">
+        <v>1</v>
+      </c>
+      <c r="R163" s="17">
+        <v>1</v>
+      </c>
+      <c r="S163" s="17">
+        <v>1</v>
+      </c>
+      <c r="T163" s="17">
+        <v>0</v>
+      </c>
+      <c r="U163" s="17">
+        <v>8</v>
+      </c>
+      <c r="V163" s="17">
+        <v>1</v>
+      </c>
+      <c r="W163" s="17">
+        <v>1</v>
+      </c>
+      <c r="X163" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y163" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z163" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA163" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB163" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC163" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD163" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE163" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F164" s="17">
+        <v>2</v>
+      </c>
+      <c r="G164" s="17">
+        <v>0</v>
+      </c>
+      <c r="H164" s="17">
+        <v>0</v>
+      </c>
+      <c r="I164" s="17">
+        <v>9</v>
+      </c>
+      <c r="J164" s="17">
+        <v>1</v>
+      </c>
+      <c r="K164" s="17">
+        <v>2</v>
+      </c>
+      <c r="L164" s="17">
+        <v>2</v>
+      </c>
+      <c r="M164" s="17">
+        <v>0</v>
+      </c>
+      <c r="N164" s="17">
+        <v>0</v>
+      </c>
+      <c r="O164" s="17">
+        <v>2</v>
+      </c>
+      <c r="P164" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="17">
+        <v>0</v>
+      </c>
+      <c r="R164" s="17">
+        <v>3</v>
+      </c>
+      <c r="S164" s="17">
+        <v>0</v>
+      </c>
+      <c r="T164" s="17">
+        <v>1</v>
+      </c>
+      <c r="U164" s="17">
+        <v>25</v>
+      </c>
+      <c r="V164" s="17">
+        <v>1</v>
+      </c>
+      <c r="W164" s="17">
+        <v>5</v>
+      </c>
+      <c r="X164" s="17">
+        <v>10</v>
+      </c>
+      <c r="Y164" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z164" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA164" s="17">
+        <v>4</v>
+      </c>
+      <c r="AB164" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD164" s="17">
+        <v>9</v>
+      </c>
+      <c r="AE164" s="9">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
